--- a/output/resumo_por_loja.xlsx
+++ b/output/resumo_por_loja.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
     <t>Loja</t>
   </si>
@@ -37,13 +37,7 @@
     <t>Diferença (%)</t>
   </si>
   <si>
-    <t>19864</t>
-  </si>
-  <si>
-    <t>3569</t>
-  </si>
-  <si>
-    <t>7135</t>
+    <t>13254</t>
   </si>
 </sst>
 </file>
@@ -412,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,68 +447,22 @@
         <v>7</v>
       </c>
       <c r="B2" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2">
-        <v>18600</v>
+        <v>57100</v>
       </c>
       <c r="E2" s="2">
-        <v>21400</v>
+        <v>37540</v>
       </c>
       <c r="F2" s="2">
-        <v>2800</v>
+        <v>-19560</v>
       </c>
       <c r="G2" s="3">
-        <v>0.1505376344086022</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2">
-        <v>12500</v>
-      </c>
-      <c r="E3" s="2">
-        <v>14250</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1750</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0.1399999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2">
-        <v>30</v>
-      </c>
-      <c r="E4" s="2">
-        <v>60</v>
-      </c>
-      <c r="F4" s="2">
-        <v>30</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1</v>
+        <v>-0.3425569176882662</v>
       </c>
     </row>
   </sheetData>
